--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="21000" windowHeight="12995"/>
   </bookViews>
   <sheets>
     <sheet name="有码" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="864">
   <si>
     <t>Javdb</t>
   </si>
@@ -739,6 +739,12 @@
   </si>
   <si>
     <t>肛交</t>
+  </si>
+  <si>
+    <t>肛門・肛交</t>
+  </si>
+  <si>
+    <t>主javdb，其实应该是“玩弄肛门”</t>
   </si>
   <si>
     <t>肛内中出</t>
@@ -2609,10 +2615,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2638,15 +2644,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2654,7 +2676,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2668,31 +2712,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2706,53 +2759,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2769,7 +2775,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2784,7 +2790,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,7 +2940,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,163 +2970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2978,11 +2984,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3002,17 +3023,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3035,32 +3065,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3081,10 +3087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3093,133 +3099,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3596,12 +3602,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D420" sqref="D420"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3610,7 +3616,7 @@
     <col min="2" max="2" width="15.5555555555556" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.8888888888889" style="4" customWidth="1"/>
     <col min="4" max="5" width="16.4444444444444" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.1111111111111" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.5555555555556" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -5070,82 +5076,81 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="9"/>
+    <row r="95" spans="1:6">
+      <c r="A95" s="9" t="s">
+        <v>241</v>
+      </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="C95" s="1"/>
+      <c r="D95" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E96" s="9" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="4" t="s">
+      <c r="B97" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="1:5">
+      <c r="A98" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="B98" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>248</v>
-      </c>
       <c r="E98" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="9" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5159,14 +5164,14 @@
         <v>253</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -5176,61 +5181,61 @@
         <v>255</v>
       </c>
       <c r="D101" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="9" t="s">
-        <v>259</v>
+      <c r="A103" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>261</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5261,182 +5266,182 @@
         <v>264</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>268</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="C108" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>271</v>
+      <c r="E108" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="D109" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>276</v>
+      <c r="E109" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>277</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="9" t="s">
         <v>279</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="6"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="1" t="s">
+      <c r="A112" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="B112" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="D112" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>284</v>
-      </c>
+      <c r="A113" s="6"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="B114" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>287</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>289</v>
+      </c>
       <c r="C115" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="6"/>
-      <c r="B117" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="9" t="s">
-        <v>295</v>
-      </c>
+      <c r="A118" s="6"/>
       <c r="B118" s="9" t="s">
         <v>295</v>
       </c>
@@ -5444,27 +5449,27 @@
         <v>295</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>297</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5475,7 +5480,7 @@
         <v>299</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>299</v>
@@ -5486,67 +5491,67 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="9" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="9" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="B123" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D124" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E124" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5560,166 +5565,166 @@
         <v>304</v>
       </c>
       <c r="D125" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E126" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="6"/>
-      <c r="B126" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D126" s="9" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="6"/>
+      <c r="B127" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="C127" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="4" t="s">
+      <c r="D127" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>312</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>314</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>319</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="133" s="3" customFormat="1" spans="1:6">
-      <c r="A133" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D133" s="9" t="s">
+    <row r="134" s="3" customFormat="1" spans="1:6">
+      <c r="A134" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F133" s="9"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="4" t="s">
+      <c r="C134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="E134" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>325</v>
-      </c>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -5729,62 +5734,62 @@
         <v>327</v>
       </c>
       <c r="D135" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="B136" s="9" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="136" customFormat="1" spans="1:6">
-      <c r="A136" s="9" t="s">
+      <c r="C136" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D136" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F136" s="3" t="s">
+    </row>
+    <row r="137" customFormat="1" spans="1:6">
+      <c r="A137" s="9" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="137" s="3" customFormat="1" spans="1:6">
-      <c r="A137" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="1"/>
       <c r="D137" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:5">
+        <v>334</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:6">
       <c r="A138" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>334</v>
       </c>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
@@ -5794,41 +5799,41 @@
         <v>337</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>339</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="4" t="s">
-        <v>340</v>
+      <c r="A141" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>341</v>
@@ -5838,7 +5843,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -5855,7 +5860,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="9" t="s">
         <v>344</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -5865,63 +5870,62 @@
         <v>344</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="9" t="s">
-        <v>345</v>
+      <c r="A144" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="6"/>
+      <c r="A145" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="B145" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>347</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E145" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="6"/>
+      <c r="B146" s="9" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="1:6">
-      <c r="A146" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>349</v>
       </c>
       <c r="D146" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E146" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="1:5">
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:6">
       <c r="A147" s="9" t="s">
         <v>351</v>
       </c>
@@ -5932,46 +5936,47 @@
         <v>351</v>
       </c>
       <c r="D147" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="B148" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B148" s="9" t="s">
+      <c r="D148" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D148" s="9" t="s">
+      <c r="E148" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="B149" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>358</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>357</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="9" t="s">
@@ -6008,7 +6013,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="9" t="s">
         <v>363</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -6024,8 +6029,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="9" t="s">
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
         <v>365</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -6038,42 +6043,42 @@
         <v>366</v>
       </c>
       <c r="E153" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="9" t="s">
-        <v>368</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>368</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>368</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>370</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>370</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6104,75 +6109,75 @@
         <v>373</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D158" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="E158" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D158" s="9" t="s">
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="B159" s="9" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="6"/>
-      <c r="B159" s="9" t="s">
-        <v>381</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>381</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="6"/>
+      <c r="B160" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="C160" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D160" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="D160" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="9" t="s">
+      <c r="D161" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="E161" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6186,48 +6191,49 @@
         <v>387</v>
       </c>
       <c r="D162" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="B163" s="9" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>391</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="D164" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>230</v>
+        <v>393</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="1"/>
@@ -6241,105 +6247,104 @@
         <v>230</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>394</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="1"/>
       <c r="D166" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="9" t="s">
-        <v>395</v>
+      <c r="A167" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="4" t="s">
-        <v>396</v>
+      <c r="A168" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="9" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>398</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F169" s="7"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="6"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="9" t="s">
+        <v>399</v>
+      </c>
       <c r="B170" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="E170" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="F170" s="7"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="6"/>
+      <c r="B171" s="9" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D171" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6370,40 +6375,40 @@
         <v>406</v>
       </c>
       <c r="D173" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E173" s="9" t="s">
+      <c r="B174" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>409</v>
+      <c r="D174" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B175" s="9" t="s">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="1" t="s">
         <v>411</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6411,110 +6416,110 @@
         <v>412</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>412</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="6"/>
+      <c r="A177" s="9" t="s">
+        <v>414</v>
+      </c>
       <c r="B177" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>414</v>
       </c>
       <c r="D177" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="6"/>
+      <c r="B178" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="C178" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="9" t="s">
+      <c r="D178" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="E178" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="9" t="s">
         <v>419</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>420</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>419</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
+      <c r="A180" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>422</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>422</v>
+      <c r="E180" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="6"/>
-      <c r="B181" s="9" t="s">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="E181" s="9" t="s">
+      <c r="E181" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="6"/>
+      <c r="B182" s="9" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D182" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E182" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6522,13 +6527,13 @@
         <v>428</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>428</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>428</v>
@@ -6536,36 +6541,36 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>430</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>433</v>
-      </c>
       <c r="C185" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>433</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6573,92 +6578,92 @@
         <v>434</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="6"/>
+      <c r="A187" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="B187" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="4" t="s">
-        <v>436</v>
-      </c>
+      <c r="A188" s="6"/>
       <c r="B188" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>437</v>
       </c>
       <c r="E188" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="1"/>
+      <c r="B189" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="D189" s="9" t="s">
         <v>439</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F189" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>441</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>441</v>
@@ -6669,48 +6674,48 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>443</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D192" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="E192" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="6"/>
       <c r="B193" s="9" t="s">
         <v>445</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D193" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D193" s="9" t="s">
-        <v>445</v>
-      </c>
       <c r="E193" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="6"/>
+      <c r="B194" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="C194" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="9" t="s">
         <v>447</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>447</v>
@@ -6727,40 +6732,40 @@
         <v>449</v>
       </c>
       <c r="D195" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="B196" s="9" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
       <c r="C196" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D196" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="9" t="s">
+      <c r="D197" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="E197" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D197" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6774,10 +6779,10 @@
         <v>458</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>459</v>
+        <v>144</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>458</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6785,13 +6790,13 @@
         <v>460</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>460</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>460</v>
@@ -6799,27 +6804,27 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>462</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>465</v>
@@ -6828,96 +6833,96 @@
         <v>466</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="9" t="s">
         <v>467</v>
       </c>
       <c r="B202" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="E202" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="E202" s="9" t="s">
+      <c r="B203" s="9" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="6"/>
-      <c r="B203" s="9" t="s">
+      <c r="C203" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="9" t="s">
         <v>471</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="4" t="s">
-        <v>472</v>
-      </c>
+      <c r="A204" s="6"/>
       <c r="B204" s="9" t="s">
         <v>472</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="E204" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E204" s="9" t="s">
+      <c r="E205" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="6"/>
+      <c r="A206" s="9" t="s">
+        <v>475</v>
+      </c>
       <c r="B206" s="9" t="s">
         <v>475</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>475</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="6"/>
+      <c r="B207" s="9" t="s">
         <v>477</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>478</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>478</v>
@@ -6926,7 +6931,7 @@
         <v>477</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6934,7 +6939,7 @@
         <v>479</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>480</v>
@@ -6951,86 +6956,86 @@
         <v>481</v>
       </c>
       <c r="B209" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="E209" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="E209" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="6"/>
       <c r="B210" s="9" t="s">
         <v>484</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>7</v>
+        <v>485</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>7</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="4" t="s">
-        <v>485</v>
-      </c>
+      <c r="A211" s="6"/>
       <c r="B211" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D211" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="B212" s="9" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>489</v>
-      </c>
       <c r="C212" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>489</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="4" t="s">
-        <v>490</v>
+      <c r="A213" s="9" t="s">
+        <v>491</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>491</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>491</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="4" t="s">
         <v>492</v>
       </c>
       <c r="B214" s="9" t="s">
@@ -7040,27 +7045,27 @@
         <v>492</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>496</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7068,13 +7073,13 @@
         <v>498</v>
       </c>
       <c r="B216" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>498</v>
@@ -7102,13 +7107,13 @@
         <v>502</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>502</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>502</v>
@@ -7116,63 +7121,63 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>504</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>504</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="1"/>
+      <c r="C220" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="D220" s="9" t="s">
         <v>506</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F220" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B221" s="9"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F221" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="9" t="s">
-        <v>508</v>
+      <c r="A222" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>508</v>
@@ -7183,166 +7188,166 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="6"/>
+      <c r="A224" s="9" t="s">
+        <v>511</v>
+      </c>
       <c r="B224" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>511</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E224" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="6"/>
+      <c r="B225" s="9" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>513</v>
       </c>
       <c r="D225" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E225" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E225" s="9" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="6"/>
+      <c r="A226" s="9" t="s">
+        <v>515</v>
+      </c>
       <c r="B226" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="E226" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="6"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="9" t="s">
+        <v>517</v>
+      </c>
       <c r="C227" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D227" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E227" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E227" s="1" t="s">
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="6"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="4" t="s">
+      <c r="D228" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="E228" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D228" s="9" t="s">
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E228" s="9" t="s">
+      <c r="B229" s="9" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="C229" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>525</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>527</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D230" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D231" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E230" s="9" t="s">
+      <c r="E231" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="6"/>
-      <c r="B231" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="E231" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="4" t="s">
-        <v>530</v>
-      </c>
+      <c r="A232" s="6"/>
       <c r="B232" s="9" t="s">
         <v>530</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>531</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="4" t="s">
         <v>532</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -7352,39 +7357,39 @@
         <v>532</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="6"/>
+      <c r="A234" s="9" t="s">
+        <v>534</v>
+      </c>
       <c r="B234" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>534</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="6"/>
+      <c r="B235" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="C235" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>535</v>
@@ -7412,103 +7417,103 @@
         <v>539</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
+      <c r="A238" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>541</v>
+      </c>
       <c r="C238" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D238" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="9"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="E239" s="9" t="s">
+    <row r="240" spans="1:5">
+      <c r="A240" s="9" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="240" spans="2:5">
-      <c r="B240" s="9"/>
+      <c r="B240" s="9" t="s">
+        <v>543</v>
+      </c>
       <c r="C240" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D240" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E240" s="9" t="s">
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" s="9"/>
+      <c r="C241" s="1" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="6"/>
-      <c r="B241" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>547</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="6"/>
-      <c r="B242" s="9"/>
+      <c r="B242" s="9" t="s">
+        <v>549</v>
+      </c>
       <c r="C242" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="6"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="E243" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7516,98 +7521,98 @@
         <v>553</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>553</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="4" t="s">
-        <v>554</v>
+      <c r="A245" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="9" t="s">
-        <v>555</v>
+      <c r="A246" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>556</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>556</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>558</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D247" s="9" t="s">
-        <v>559</v>
-      </c>
       <c r="E247" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="9" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="4" t="s">
+      <c r="B248" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="E248" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="E248" s="9" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="4" t="s">
         <v>563</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>563</v>
@@ -7615,47 +7620,47 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>567</v>
@@ -7683,90 +7688,87 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="9" t="s">
-        <v>294</v>
+        <v>570</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>294</v>
+        <v>570</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>294</v>
+        <v>570</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>294</v>
+        <v>571</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="255" spans="2:6">
-      <c r="B255" s="9"/>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="C255" s="1" t="s">
-        <v>570</v>
+        <v>296</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="9"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
       <c r="B256" s="9"/>
       <c r="C256" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="9"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F256" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="9" t="s">
+      <c r="F257" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B257" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="E257" s="9" t="s">
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="9" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="9" t="s">
+      <c r="B258" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="C258" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="E258" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D258" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="E258" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="9" t="s">
         <v>578</v>
       </c>
@@ -7781,6 +7783,9 @@
       </c>
       <c r="E259" s="9" t="s">
         <v>578</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7791,7 +7796,7 @@
         <v>581</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>581</v>
@@ -7811,118 +7816,122 @@
         <v>582</v>
       </c>
       <c r="D261" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E261" s="9" t="s">
+      <c r="B262" s="9" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="262" spans="2:6">
-      <c r="B262" s="9"/>
       <c r="C262" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D262" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="6"/>
-      <c r="B263" s="7"/>
+      <c r="E262" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" s="9"/>
       <c r="C263" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="F263" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="6"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="E264" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="9" t="s">
         <v>590</v>
       </c>
       <c r="B265" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D265" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="E265" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="B266" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="E265" s="9" t="s">
+      <c r="C266" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="266" spans="2:5">
-      <c r="B266" s="9"/>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="6"/>
-      <c r="B267" s="9" t="s">
+      <c r="E266" s="9" t="s">
         <v>596</v>
       </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" s="9"/>
       <c r="C267" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="D267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="6"/>
+      <c r="B268" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="E267" s="9" t="s">
+      <c r="C268" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="268" spans="2:5">
-      <c r="B268" s="9"/>
-      <c r="C268" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="9"/>
+      <c r="D268" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E268" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
       <c r="B269" s="9"/>
       <c r="C269" s="1" t="s">
-        <v>600</v>
+        <v>82</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>84</v>
@@ -7931,67 +7940,67 @@
         <v>84</v>
       </c>
     </row>
-    <row r="270" spans="2:5">
+    <row r="270" spans="1:5">
+      <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>601</v>
+        <v>84</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B271" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="9"/>
+      <c r="C271" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="E271" s="9" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5">
-      <c r="B272" s="9"/>
+      <c r="E271" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>605</v>
+      </c>
       <c r="C272" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="E272" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>607</v>
-      </c>
+      <c r="E272" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="9"/>
       <c r="C273" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D273" s="9" t="s">
+      <c r="D273" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E273" s="9" t="s">
-        <v>606</v>
+      <c r="E273" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
+      <c r="A274" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>609</v>
+      </c>
       <c r="C274" s="1" t="s">
         <v>608</v>
       </c>
@@ -7999,138 +8008,134 @@
         <v>609</v>
       </c>
       <c r="E274" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="9"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="4" t="s">
+      <c r="D275" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="E275" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D275" s="9" t="s">
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="E275" s="9" t="s">
+      <c r="B276" s="9" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="9" t="s">
+      <c r="C276" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D276" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="E276" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="E276" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D277" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="E277" s="9" t="s">
         <v>620</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D277" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E277" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D278" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="E278" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E278" s="9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="9" t="s">
         <v>625</v>
       </c>
       <c r="B279" s="9" t="s">
         <v>626</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="B280" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="E279" s="9" t="s">
+      <c r="C280" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="9" t="s">
+      <c r="D280" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="E280" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="E280" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="281" spans="2:5">
-      <c r="B281" s="9"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>633</v>
+      </c>
       <c r="C281" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="9" t="s">
+      <c r="D281" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="E281" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="9"/>
+      <c r="C282" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D282" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="E282" s="9" t="s">
-        <v>633</v>
+      <c r="E282" s="1" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8151,33 +8156,33 @@
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="9"/>
-      <c r="B284" s="9"/>
+      <c r="A284" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>638</v>
+      </c>
       <c r="C284" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D284" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>638</v>
+      <c r="E284" s="9" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>640</v>
-      </c>
+      <c r="A285" s="9"/>
+      <c r="B285" s="9"/>
       <c r="C285" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D285" s="9" t="s">
+      <c r="D285" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E285" s="9" t="s">
-        <v>639</v>
+      <c r="E285" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8191,62 +8196,62 @@
         <v>641</v>
       </c>
       <c r="D286" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="E286" s="9" t="s">
+      <c r="B287" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>645</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="4" t="s">
+        <v>646</v>
+      </c>
       <c r="B288" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="E288" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5">
+      <c r="B289" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="E288" s="9" t="s">
+      <c r="C289" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="4" t="s">
+      <c r="D289" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="E289" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D289" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="E289" s="9" t="s">
-        <v>650</v>
-      </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="4" t="s">
         <v>652</v>
       </c>
       <c r="B290" s="9" t="s">
@@ -8263,62 +8268,62 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
+      <c r="A291" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>655</v>
+      </c>
       <c r="C291" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D291" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="E291" s="1" t="s">
+      <c r="E291" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="9"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="9" t="s">
+      <c r="D292" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="E292" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C292" s="1" t="s">
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="D292" s="9" t="s">
+      <c r="B293" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="E292" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="6"/>
-      <c r="B293" s="9" t="s">
+      <c r="C293" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="D293" s="9" t="s">
-        <v>661</v>
-      </c>
       <c r="E293" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="6"/>
+      <c r="B294" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="C294" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="9" t="s">
         <v>663</v>
-      </c>
-      <c r="D294" s="9" t="s">
-        <v>664</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>663</v>
@@ -8326,153 +8331,153 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B296" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D295" s="9" t="s">
+      <c r="D296" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E295" s="9" t="s">
+      <c r="E296" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="6"/>
-      <c r="B296" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D296" s="9" t="s">
+    <row r="297" spans="1:5">
+      <c r="A297" s="6"/>
+      <c r="B297" s="9" t="s">
         <v>667</v>
-      </c>
-      <c r="E296" s="9" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="B297" s="9" t="s">
-        <v>669</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>668</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>671</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="9" t="s">
-        <v>213</v>
+        <v>676</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>212</v>
+        <v>676</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>213</v>
+        <v>676</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>212</v>
+        <v>676</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>213</v>
+        <v>676</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="9" t="s">
-        <v>675</v>
+        <v>213</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>676</v>
+        <v>212</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>675</v>
+        <v>213</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>676</v>
+        <v>212</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>675</v>
+        <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8480,124 +8485,128 @@
         <v>677</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>677</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E304" s="9" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="6"/>
-      <c r="B305" s="9"/>
+      <c r="A305" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>679</v>
+      </c>
       <c r="C305" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D305" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="6"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E305" s="1" t="s">
+      <c r="E306" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D306" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="E306" s="9" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="307" s="3" customFormat="1" spans="1:6">
+    <row r="307" spans="1:5">
       <c r="A307" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="C307" s="9" t="s">
-        <v>680</v>
+      <c r="C307" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="D307" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="308" s="3" customFormat="1" spans="1:6">
+      <c r="A308" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="E307" s="9" t="s">
+      <c r="B308" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="F307" s="9"/>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C308" s="9"/>
+      <c r="C308" s="9" t="s">
+        <v>682</v>
+      </c>
       <c r="D308" s="9" t="s">
         <v>684</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5">
+        <v>685</v>
+      </c>
+      <c r="F308" s="9"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="9" t="s">
+        <v>686</v>
+      </c>
       <c r="B309" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9" t="s">
-        <v>7</v>
+        <v>686</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>7</v>
+        <v>686</v>
       </c>
     </row>
     <row r="310" spans="2:5">
       <c r="B310" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9" t="s">
-        <v>609</v>
+        <v>7</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="9" t="s">
-        <v>687</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5">
       <c r="B311" s="9" t="s">
         <v>688</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9" t="s">
-        <v>7</v>
+        <v>611</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>7</v>
+        <v>612</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="6"/>
+      <c r="A312" s="9" t="s">
+        <v>689</v>
+      </c>
       <c r="B312" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9" t="s">
@@ -8608,39 +8617,39 @@
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="9" t="s">
-        <v>690</v>
-      </c>
+      <c r="A313" s="6"/>
       <c r="B313" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9" t="s">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>690</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9" t="s">
-        <v>7</v>
+        <v>692</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>7</v>
+        <v>692</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="6"/>
+      <c r="A315" s="9" t="s">
+        <v>693</v>
+      </c>
       <c r="B315" s="9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="9" t="s">
@@ -8650,9 +8659,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="2:5">
-      <c r="B316" s="4" t="s">
-        <v>693</v>
+    <row r="316" spans="1:5">
+      <c r="A316" s="6"/>
+      <c r="B316" s="9" t="s">
+        <v>694</v>
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="9" t="s">
@@ -8662,11 +8672,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="B317" s="9" t="s">
+    <row r="317" spans="2:5">
+      <c r="B317" s="4" t="s">
         <v>695</v>
       </c>
       <c r="C317" s="9"/>
@@ -8678,20 +8685,18 @@
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="4" t="s">
         <v>696</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="C318" s="1" t="s">
         <v>697</v>
       </c>
+      <c r="C318" s="9"/>
       <c r="D318" s="9" t="s">
-        <v>280</v>
+        <v>7</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>696</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8699,45 +8704,47 @@
         <v>698</v>
       </c>
       <c r="B319" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C319" s="9"/>
       <c r="D319" s="9" t="s">
-        <v>699</v>
+        <v>282</v>
       </c>
       <c r="E319" s="9" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="320" spans="2:5">
+    <row r="320" spans="1:5">
+      <c r="A320" s="9" t="s">
+        <v>700</v>
+      </c>
       <c r="B320" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E320" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="E320" s="9" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="9"/>
+    </row>
+    <row r="321" spans="2:5">
       <c r="B321" s="9" t="s">
         <v>702</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9" t="s">
-        <v>7</v>
+        <v>702</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>7</v>
+        <v>703</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="9" t="s">
-        <v>703</v>
-      </c>
+      <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
         <v>704</v>
       </c>
@@ -8758,38 +8765,38 @@
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9" t="s">
-        <v>706</v>
+        <v>7</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>705</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="6"/>
+      <c r="A324" s="9" t="s">
+        <v>707</v>
+      </c>
       <c r="B324" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="E324" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="E324" s="9" t="s">
-        <v>708</v>
-      </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="6"/>
+      <c r="B325" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>710</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9" t="s">
-        <v>7</v>
+        <v>709</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>7</v>
+        <v>710</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8801,10 +8808,10 @@
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9" t="s">
-        <v>712</v>
+        <v>7</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>711</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8812,48 +8819,50 @@
         <v>713</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9" t="s">
-        <v>7</v>
+        <v>714</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>7</v>
+        <v>713</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="9" t="s">
-        <v>126</v>
+        <v>715</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>126</v>
+        <v>715</v>
       </c>
       <c r="C328" s="9"/>
       <c r="D328" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E328" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E328" s="9" t="s">
+      <c r="E329" s="9" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="6"/>
-      <c r="B329" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="6"/>
       <c r="B330" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
@@ -8863,44 +8872,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="2:5">
-      <c r="B331" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="C331" s="9"/>
-      <c r="D331" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E331" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="6"/>
+    <row r="331" spans="1:5">
+      <c r="A331" s="6"/>
+      <c r="B331" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5">
       <c r="B332" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="9" t="s">
-        <v>718</v>
-      </c>
+      <c r="A333" s="6"/>
       <c r="B333" s="9" t="s">
         <v>719</v>
       </c>
       <c r="C333" s="9"/>
       <c r="D333" s="9" t="s">
-        <v>719</v>
+        <v>268</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>718</v>
+        <v>269</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8923,27 +8930,29 @@
         <v>722</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C335" s="9"/>
       <c r="D335" s="9" t="s">
-        <v>312</v>
+        <v>723</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>312</v>
+        <v>722</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="6"/>
+      <c r="A336" s="9" t="s">
+        <v>724</v>
+      </c>
       <c r="B336" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="9" t="s">
-        <v>723</v>
+        <v>314</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>724</v>
+        <v>314</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8951,105 +8960,103 @@
       <c r="B337" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C337" s="9"/>
+      <c r="D337" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E337" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="D337" s="9" t="s">
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="6"/>
+      <c r="B338" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D338" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E337" s="9" t="s">
+      <c r="E338" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="B338" s="9"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="E338" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="F338" s="3" t="s">
+    <row r="339" spans="1:6">
+      <c r="A339" s="6" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="9" t="s">
+      <c r="B339" s="9"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="E339" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="F339" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C339" s="1" t="s">
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="D339" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="E339" s="9" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="6"/>
       <c r="B340" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="E340" s="9" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="6"/>
+      <c r="B341" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C340" s="9"/>
-      <c r="D340" s="9" t="s">
+      <c r="C341" s="9"/>
+      <c r="D341" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E340" s="9" t="s">
+      <c r="E341" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="C341" s="1" t="s">
+    <row r="342" spans="1:5">
+      <c r="A342" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D341" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="E341" s="9" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="6"/>
       <c r="B342" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C342" s="9"/>
+      <c r="C342" s="1" t="s">
+        <v>737</v>
+      </c>
       <c r="D342" s="9" t="s">
-        <v>7</v>
+        <v>736</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>7</v>
+        <v>735</v>
       </c>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="9" t="s">
-        <v>737</v>
-      </c>
+      <c r="A343" s="6"/>
       <c r="B343" s="9" t="s">
         <v>738</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9" t="s">
-        <v>738</v>
+        <v>7</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>737</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9069,62 +9076,62 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="9" t="s">
-        <v>488</v>
+        <v>741</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>487</v>
+        <v>742</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9" t="s">
-        <v>487</v>
+        <v>742</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>488</v>
+        <v>741</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="9" t="s">
-        <v>741</v>
+        <v>490</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>741</v>
+        <v>489</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9" t="s">
-        <v>741</v>
+        <v>489</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>741</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="4" t="s">
-        <v>742</v>
+      <c r="A347" s="9" t="s">
+        <v>743</v>
       </c>
       <c r="B347" s="9" t="s">
         <v>743</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E347" s="9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="E347" s="9" t="s">
+      <c r="B348" s="9" t="s">
         <v>745</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>747</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9" t="s">
-        <v>7</v>
+        <v>746</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>7</v>
+        <v>747</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9136,10 +9143,10 @@
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9" t="s">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>394</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9151,28 +9158,28 @@
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9" t="s">
-        <v>7</v>
+        <v>396</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="351" spans="2:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="9" t="s">
+        <v>752</v>
+      </c>
       <c r="B351" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9" t="s">
-        <v>753</v>
+        <v>7</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="9" t="s">
-        <v>754</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
       <c r="B352" s="9" t="s">
         <v>754</v>
       </c>
@@ -9181,22 +9188,22 @@
         <v>755</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9" t="s">
-        <v>7</v>
+        <v>757</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>7</v>
+        <v>758</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9208,10 +9215,10 @@
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9" t="s">
-        <v>760</v>
+        <v>7</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>759</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9230,33 +9237,33 @@
       </c>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="4" t="s">
-        <v>476</v>
+      <c r="A356" s="9" t="s">
+        <v>763</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E356" s="9" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="9" t="s">
-        <v>764</v>
+      <c r="A357" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="B357" s="9" t="s">
         <v>765</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9" t="s">
-        <v>609</v>
+        <v>765</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>609</v>
+        <v>765</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9268,71 +9275,74 @@
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9" t="s">
-        <v>176</v>
+        <v>611</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>177</v>
+        <v>611</v>
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="6"/>
+      <c r="A359" s="9" t="s">
+        <v>768</v>
+      </c>
       <c r="B359" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="9" t="s">
-        <v>769</v>
-      </c>
+      <c r="A360" s="6"/>
       <c r="B360" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="9" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="4" t="s">
-        <v>770</v>
+      <c r="A361" s="9" t="s">
+        <v>771</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="9" t="s">
-        <v>770</v>
+        <v>7</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>770</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="6"/>
+      <c r="A362" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="B362" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C362" s="9"/>
       <c r="D362" s="9" t="s">
         <v>772</v>
       </c>
       <c r="E362" s="9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="6"/>
+      <c r="B363" s="9" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5">
-      <c r="B363" s="9" t="s">
-        <v>774</v>
       </c>
       <c r="C363" s="9"/>
       <c r="D363" s="9" t="s">
@@ -9342,31 +9352,28 @@
         <v>775</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="1" t="s">
+    <row r="364" spans="2:5">
+      <c r="B364" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C364" s="9"/>
+      <c r="D364" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="E364" s="9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B365" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C364" s="9" t="s">
+      <c r="C365" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D364" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E364" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="C365" s="9"/>
       <c r="D365" s="9" t="s">
         <v>7</v>
       </c>
@@ -9375,7 +9382,7 @@
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="4" t="s">
         <v>778</v>
       </c>
       <c r="B366" s="9" t="s">
@@ -9383,13 +9390,13 @@
       </c>
       <c r="C366" s="9"/>
       <c r="D366" s="9" t="s">
-        <v>779</v>
+        <v>7</v>
       </c>
       <c r="E366" s="9" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" s="9" t="s">
         <v>780</v>
       </c>
@@ -9403,121 +9410,121 @@
       <c r="E367" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="F367" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" s="9" t="s">
         <v>782</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C368" s="9"/>
       <c r="D368" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E368" s="9" t="s">
         <v>782</v>
       </c>
+      <c r="F368" s="3" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="4" t="s">
-        <v>783</v>
+      <c r="A369" s="9" t="s">
+        <v>784</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>58</v>
+        <v>784</v>
       </c>
       <c r="C369" s="9"/>
       <c r="D369" s="9" t="s">
-        <v>577</v>
+        <v>784</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>576</v>
+        <v>784</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>783</v>
+        <v>58</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9" t="s">
-        <v>58</v>
+        <v>579</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>58</v>
+        <v>578</v>
       </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="9" t="s">
-        <v>784</v>
+      <c r="A371" s="4" t="s">
+        <v>785</v>
       </c>
       <c r="B371" s="9" t="s">
         <v>785</v>
       </c>
       <c r="C371" s="9"/>
       <c r="D371" s="9" t="s">
-        <v>785</v>
+        <v>58</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>784</v>
+        <v>58</v>
       </c>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="6"/>
+      <c r="A372" s="9" t="s">
+        <v>786</v>
+      </c>
       <c r="B372" s="9" t="s">
-        <v>292</v>
+        <v>787</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9" t="s">
-        <v>292</v>
+        <v>787</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>292</v>
+        <v>786</v>
       </c>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="4" t="s">
-        <v>786</v>
-      </c>
+      <c r="A373" s="6"/>
       <c r="B373" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="C373" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E373" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="D373" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="E373" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="9" t="s">
+      <c r="B374" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="C374" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C374" s="9"/>
       <c r="D374" s="9" t="s">
-        <v>7</v>
+        <v>461</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="9" t="s">
-        <v>595</v>
+        <v>791</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>595</v>
+        <v>792</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9" t="s">
@@ -9529,32 +9536,32 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="9" t="s">
-        <v>791</v>
+        <v>597</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>791</v>
+        <v>597</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9" t="s">
-        <v>791</v>
+        <v>7</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>791</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="9" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>793</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>7</v>
+        <v>793</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9572,7 +9579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:5">
       <c r="A379" s="9" t="s">
         <v>796</v>
       </c>
@@ -9581,44 +9588,44 @@
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9" t="s">
-        <v>469</v>
+        <v>7</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>571</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B380" s="9"/>
+      <c r="B380" s="9" t="s">
+        <v>799</v>
+      </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9" t="s">
-        <v>799</v>
+        <v>471</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>798</v>
+        <v>470</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B381" s="9" t="s">
-        <v>801</v>
-      </c>
+      <c r="B381" s="9"/>
       <c r="C381" s="9"/>
       <c r="D381" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9630,168 +9637,167 @@
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9" t="s">
-        <v>7</v>
+        <v>801</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="6"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="9" t="s">
+        <v>804</v>
+      </c>
       <c r="B383" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F383" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="4" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="6"/>
       <c r="B384" s="9" t="s">
         <v>806</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9" t="s">
-        <v>806</v>
+        <v>138</v>
       </c>
       <c r="E384" s="9" t="s">
-        <v>805</v>
+        <v>138</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="6"/>
+      <c r="A385" s="4" t="s">
+        <v>807</v>
+      </c>
       <c r="B385" s="9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9" t="s">
-        <v>141</v>
+        <v>808</v>
       </c>
       <c r="E385" s="9" t="s">
-        <v>142</v>
+        <v>807</v>
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="4" t="s">
-        <v>808</v>
-      </c>
+      <c r="A386" s="6"/>
       <c r="B386" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="E386" s="9" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C387" s="9"/>
       <c r="D387" s="9" t="s">
-        <v>589</v>
+        <v>7</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="9" t="s">
-        <v>810</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="C388" s="1" t="s">
         <v>811</v>
       </c>
+      <c r="C388" s="9"/>
       <c r="D388" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="E388" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="E388" s="9" t="s">
+      <c r="B389" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="F388" s="7"/>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="A389" s="6"/>
-      <c r="B389" s="9" t="s">
+      <c r="D389" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="C389" s="9"/>
-      <c r="D389" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="E389" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="390" s="3" customFormat="1" spans="1:6">
-      <c r="A390" s="9" t="s">
         <v>815</v>
       </c>
+      <c r="F389" s="7"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="6"/>
       <c r="B390" s="9" t="s">
         <v>816</v>
       </c>
       <c r="C390" s="9"/>
       <c r="D390" s="9" t="s">
-        <v>816</v>
+        <v>322</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="F390" s="9"/>
+        <v>322</v>
+      </c>
     </row>
     <row r="391" s="3" customFormat="1" spans="1:6">
       <c r="A391" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="B391" s="9"/>
+      <c r="B391" s="9" t="s">
+        <v>818</v>
+      </c>
       <c r="C391" s="9"/>
       <c r="D391" s="9" t="s">
         <v>818</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="F391" s="6" t="s">
-        <v>820</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="F391" s="9"/>
     </row>
     <row r="392" s="3" customFormat="1" spans="1:6">
       <c r="A392" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E392" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="F392" s="3" t="s">
-        <v>823</v>
+      <c r="F392" s="6" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="393" s="3" customFormat="1" spans="1:6">
       <c r="A393" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -9799,85 +9805,86 @@
         <v>824</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>230</v>
+        <v>825</v>
       </c>
     </row>
     <row r="394" s="3" customFormat="1" spans="1:6">
       <c r="A394" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E394" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="F394" s="7"/>
+        <v>826</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="395" s="3" customFormat="1" spans="1:6">
       <c r="A395" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E395" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="F395" s="6" t="s">
-        <v>828</v>
-      </c>
+      <c r="F395" s="7"/>
     </row>
     <row r="396" s="3" customFormat="1" spans="1:6">
       <c r="A396" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
       <c r="D396" s="9" t="s">
-        <v>640</v>
+        <v>829</v>
       </c>
       <c r="E396" s="9" t="s">
-        <v>640</v>
+        <v>828</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" s="3" customFormat="1" spans="1:6">
       <c r="A397" s="9" t="s">
         <v>831</v>
       </c>
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
       <c r="D397" s="9" t="s">
-        <v>581</v>
+        <v>642</v>
       </c>
       <c r="E397" s="9" t="s">
-        <v>581</v>
+        <v>642</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E398" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F398" s="6" t="s">
         <v>832</v>
-      </c>
-      <c r="B398" s="7"/>
-      <c r="D398" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E398" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F398" s="6" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9886,138 +9893,139 @@
       </c>
       <c r="B399" s="7"/>
       <c r="D399" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E399" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F399" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="E399" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="F399" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B400" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="C400" s="7"/>
+      <c r="B400" s="7"/>
       <c r="D400" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E400" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="4" t="s">
+      <c r="A401" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B401" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="C401" s="7"/>
+      <c r="D401" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="D401" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E401" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F401" s="3" t="s">
+      <c r="E401" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F401" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:6">
       <c r="A402" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>838</v>
+        <v>341</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>838</v>
+        <v>341</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="G402" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="4" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="A403" s="4" t="s">
+      <c r="B403" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="F403" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="B403" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>230</v>
+      <c r="G403" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>420</v>
+        <v>843</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>420</v>
+        <v>843</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="405" spans="3:6">
-      <c r="C405" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="B405" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F405" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="E405" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="F405" s="3" t="s">
+    </row>
+    <row r="406" spans="3:6">
+      <c r="C406" s="1" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="A406" s="4" t="s">
+      <c r="D406" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D406" s="4" t="s">
+      <c r="E406" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F406" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="E406" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="F406" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="D407" s="4" t="s">
         <v>850</v>
-      </c>
-      <c r="D407" s="4" t="s">
-        <v>851</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>851</v>
@@ -10034,7 +10042,7 @@
         <v>853</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>230</v>
@@ -10042,16 +10050,16 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>855</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>856</v>
+        <v>230</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -10059,13 +10067,13 @@
         <v>857</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E410" s="4" t="s">
         <v>857</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>230</v>
+        <v>858</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -10079,7 +10087,21 @@
         <v>859</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>333</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -10110,10 +10132,10 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -10135,12 +10157,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="864">
   <si>
     <t>Javdb</t>
   </si>
@@ -627,10 +627,10 @@
     <t>打手槍</t>
   </si>
   <si>
+    <t>單體作品</t>
+  </si>
+  <si>
     <t>单体作品</t>
-  </si>
-  <si>
-    <t>單體作品</t>
   </si>
   <si>
     <t>蕩婦</t>
@@ -2615,10 +2615,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2638,7 +2638,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2646,14 +2674,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,43 +2721,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2727,11 +2735,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2745,22 +2753,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2775,7 +2775,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2790,31 +2790,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,19 +2850,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,7 +2898,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2868,79 +2958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2952,25 +2970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,6 +2981,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2999,11 +3008,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3027,46 +3066,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3087,10 +3087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3099,16 +3099,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3117,16 +3117,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3135,97 +3132,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3605,9 +3605,9 @@
   <dimension ref="A1:G412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4787,18 +4787,21 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="1:6">
+      <c r="A78" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="B78" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="F78" s="7"/>
     </row>

--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="864">
-  <si>
-    <t>Javdb</t>
-  </si>
-  <si>
-    <t>Javlibrary</t>
-  </si>
-  <si>
-    <t>Javbus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="867">
+  <si>
+    <t>JavDb</t>
+  </si>
+  <si>
+    <t>JavLibrary</t>
+  </si>
+  <si>
+    <t>JavBus</t>
   </si>
   <si>
     <t>简体中文</t>
@@ -627,12 +627,12 @@
     <t>打手槍</t>
   </si>
   <si>
+    <t>单体作品</t>
+  </si>
+  <si>
     <t>單體作品</t>
   </si>
   <si>
-    <t>单体作品</t>
-  </si>
-  <si>
     <t>蕩婦</t>
   </si>
   <si>
@@ -741,12 +741,6 @@
     <t>肛交</t>
   </si>
   <si>
-    <t>肛門・肛交</t>
-  </si>
-  <si>
-    <t>主javdb，其实应该是“玩弄肛门”</t>
-  </si>
-  <si>
     <t>肛内中出</t>
   </si>
   <si>
@@ -2605,6 +2599,21 @@
   </si>
   <si>
     <t>无套内射</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>1v1性交</t>
+  </si>
+  <si>
+    <t>淫蕩手淫</t>
+  </si>
+  <si>
+    <t>女优手淫</t>
+  </si>
+  <si>
+    <t>女優手淫</t>
   </si>
   <si>
     <t>重新整理</t>
@@ -2615,10 +2624,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2638,6 +2647,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2652,45 +2682,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2704,26 +2704,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2744,10 +2729,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2759,8 +2760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2769,6 +2771,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2790,7 +2799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2802,7 +2823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,7 +2853,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,151 +2979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3008,17 +3017,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3028,6 +3037,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3047,26 +3065,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3087,10 +3096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3099,133 +3108,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3602,12 +3611,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G412"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3616,7 +3625,7 @@
     <col min="2" max="2" width="15.5555555555556" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.8888888888889" style="4" customWidth="1"/>
     <col min="4" max="5" width="16.4444444444444" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.5555555555556" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.1111111111111" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4787,21 +4796,18 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="2:6">
+      <c r="B78" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="C78" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="F78" s="7"/>
     </row>
@@ -5079,81 +5085,82 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="9" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="D95" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="D96" s="9" t="s">
         <v>244</v>
       </c>
+      <c r="E96" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="9" t="s">
-        <v>245</v>
+      <c r="A97" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="4" t="s">
-        <v>248</v>
-      </c>
+    <row r="98" spans="2:5">
       <c r="B98" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>249</v>
-      </c>
       <c r="E98" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="B99" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5167,14 +5174,14 @@
         <v>253</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="9" t="s">
         <v>255</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -5184,61 +5191,61 @@
         <v>255</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="9" t="s">
-        <v>257</v>
+      <c r="A102" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D102" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="B103" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>261</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5269,182 +5276,182 @@
         <v>264</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>268</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>270</v>
+      <c r="E108" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>277</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="6"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="D112" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="6"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>283</v>
+      <c r="D113" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="9" t="s">
-        <v>285</v>
+      <c r="A114" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>287</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="D115" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>288</v>
+      <c r="E115" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="9" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="6"/>
+      <c r="A118" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="B118" s="9" t="s">
         <v>295</v>
       </c>
@@ -5452,27 +5459,27 @@
         <v>295</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>297</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5483,7 +5490,7 @@
         <v>299</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>299</v>
@@ -5494,67 +5501,67 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="9" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="9" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B124" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D124" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5568,166 +5575,166 @@
         <v>304</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>305</v>
+        <v>138</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="6"/>
+      <c r="B126" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="C126" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="D126" s="9" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="6"/>
+      <c r="A127" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="B127" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="9" t="s">
         <v>312</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>312</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>314</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>319</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="9" t="s">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>320</v>
+        <v>67</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:6">
+      <c r="A133" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="C133" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D133" s="9" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="134" s="3" customFormat="1" spans="1:6">
-      <c r="A134" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D134" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="9" t="s">
         <v>327</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -5737,62 +5744,62 @@
         <v>327</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" spans="1:6">
       <c r="A136" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>329</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B136" s="9"/>
+      <c r="C136" s="1"/>
       <c r="D136" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="137" customFormat="1" spans="1:6">
+      <c r="F136" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:6">
       <c r="A137" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="D137" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:6">
+        <v>332</v>
+      </c>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
@@ -5802,41 +5809,41 @@
         <v>337</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>339</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="B141" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="C141" s="1" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>341</v>
@@ -5846,7 +5853,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="9" t="s">
         <v>342</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -5863,7 +5870,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -5873,62 +5880,63 @@
         <v>344</v>
       </c>
       <c r="D143" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="4" t="s">
+      <c r="C144" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="6"/>
+      <c r="B145" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>347</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="6"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146" s="3" customFormat="1" spans="1:6">
+      <c r="A146" s="9" t="s">
+        <v>349</v>
+      </c>
       <c r="B146" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>349</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" s="3" customFormat="1" spans="1:6">
+        <v>349</v>
+      </c>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
         <v>351</v>
       </c>
@@ -5939,47 +5947,46 @@
         <v>351</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B148" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="D148" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>356</v>
+      </c>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B149" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>358</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F149" s="7"/>
+        <v>357</v>
+      </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="9" t="s">
@@ -6016,7 +6023,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="4" t="s">
         <v>363</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -6032,8 +6039,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="4" t="s">
+    <row r="153" spans="1:6">
+      <c r="A153" s="9" t="s">
         <v>365</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -6046,42 +6053,42 @@
         <v>366</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>367</v>
+      </c>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>368</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F154" s="7"/>
+        <v>368</v>
+      </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>370</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>370</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6112,75 +6119,75 @@
         <v>373</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="9" t="s">
-        <v>379</v>
-      </c>
+      <c r="A159" s="6"/>
       <c r="B159" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>381</v>
       </c>
       <c r="E159" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="6"/>
-      <c r="B160" s="9" t="s">
+      <c r="D160" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
+      <c r="E160" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="C161" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D161" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F161" s="3" t="s">
+      <c r="D161" s="9" t="s">
         <v>386</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6194,49 +6201,48 @@
         <v>387</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="9" t="s">
-        <v>389</v>
+      <c r="A163" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>391</v>
       </c>
       <c r="E163" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="1"/>
       <c r="D164" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="1"/>
@@ -6250,104 +6256,105 @@
         <v>230</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="9" t="s">
+      <c r="B167" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="B168" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="4" t="s">
+      <c r="C168" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="D168" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="E168" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="9" t="s">
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>398</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F169" s="7"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="6"/>
+      <c r="B170" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="C170" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>400</v>
-      </c>
       <c r="E170" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F170" s="7"/>
+        <v>401</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="6"/>
+      <c r="A171" s="9" t="s">
+        <v>402</v>
+      </c>
       <c r="B171" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6378,40 +6385,40 @@
         <v>406</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B174" s="9" t="s">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="B175" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="E175" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6419,110 +6426,110 @@
         <v>412</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>412</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="9" t="s">
-        <v>414</v>
-      </c>
+      <c r="A177" s="6"/>
       <c r="B177" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>414</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="6"/>
+      <c r="A178" s="9" t="s">
+        <v>417</v>
+      </c>
       <c r="B178" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>417</v>
+        <v>130</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>418</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="4" t="s">
         <v>419</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>420</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D179" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="E179" s="9" t="s">
-        <v>130</v>
+        <v>419</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>422</v>
-      </c>
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E180" s="9" t="s">
-        <v>421</v>
+      <c r="E180" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="9" t="s">
+        <v>423</v>
+      </c>
       <c r="C181" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D181" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>424</v>
+      <c r="E181" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="6"/>
+      <c r="A182" s="9" t="s">
+        <v>426</v>
+      </c>
       <c r="B182" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6530,13 +6537,13 @@
         <v>428</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>428</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>428</v>
@@ -6544,36 +6551,36 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>430</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B185" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>433</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6581,92 +6588,92 @@
         <v>434</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="6"/>
+      <c r="B187" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B188" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="6"/>
-      <c r="B188" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>437</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>438</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="1"/>
       <c r="D189" s="9" t="s">
         <v>439</v>
       </c>
       <c r="E189" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="9" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="1"/>
+      <c r="B190" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="D190" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>230</v>
+        <v>439</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>441</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>441</v>
@@ -6677,48 +6684,48 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>443</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="9" t="s">
-        <v>444</v>
-      </c>
+      <c r="A193" s="6"/>
       <c r="B193" s="9" t="s">
         <v>445</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="6"/>
+      <c r="A194" s="9" t="s">
+        <v>447</v>
+      </c>
       <c r="B194" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>447</v>
@@ -6735,40 +6742,40 @@
         <v>449</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>452</v>
-      </c>
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
       <c r="C196" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D196" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="E196" s="9" t="s">
+      <c r="D196" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="E196" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
+      <c r="A197" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="C197" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D197" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>457</v>
+      <c r="D197" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6782,10 +6789,10 @@
         <v>458</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>144</v>
+        <v>459</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>144</v>
+        <v>458</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6793,13 +6800,13 @@
         <v>460</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>460</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>460</v>
@@ -6807,27 +6814,27 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>462</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>465</v>
@@ -6836,96 +6843,96 @@
         <v>466</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="4" t="s">
         <v>467</v>
       </c>
       <c r="B202" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D202" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="A203" s="6"/>
       <c r="B203" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D203" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="6"/>
+      <c r="A204" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="B204" s="9" t="s">
         <v>472</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D204" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="E204" s="9" t="s">
+      <c r="B205" s="9" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="4" t="s">
+      <c r="C205" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="E205" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="9" t="s">
-        <v>475</v>
-      </c>
+      <c r="A206" s="6"/>
       <c r="B206" s="9" t="s">
         <v>475</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="6"/>
+      <c r="A207" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="B207" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>478</v>
@@ -6934,7 +6941,7 @@
         <v>477</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6942,7 +6949,7 @@
         <v>479</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>480</v>
@@ -6959,86 +6966,86 @@
         <v>481</v>
       </c>
       <c r="B209" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="D209" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="9" t="s">
-        <v>483</v>
-      </c>
+      <c r="A210" s="6"/>
       <c r="B210" s="9" t="s">
         <v>484</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D210" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="E210" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="6"/>
       <c r="B211" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="4" t="s">
-        <v>487</v>
+      <c r="A212" s="9" t="s">
+        <v>489</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>489</v>
       </c>
       <c r="E212" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="4" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>491</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>491</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="9" t="s">
         <v>492</v>
       </c>
       <c r="B214" s="9" t="s">
@@ -7048,27 +7055,27 @@
         <v>492</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>496</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7076,13 +7083,13 @@
         <v>498</v>
       </c>
       <c r="B216" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>498</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>498</v>
@@ -7110,13 +7117,13 @@
         <v>502</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>502</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>502</v>
@@ -7124,63 +7131,63 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>504</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>504</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B220" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="B220" s="9"/>
+      <c r="C220" s="1"/>
       <c r="D220" s="9" t="s">
         <v>506</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>506</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="9" t="s">
+      <c r="B222" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E221" s="9" t="s">
+      <c r="C222" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>508</v>
@@ -7191,166 +7198,166 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="6"/>
+      <c r="B224" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="E223" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>511</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="6"/>
+      <c r="A225" s="9" t="s">
+        <v>513</v>
+      </c>
       <c r="B225" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>513</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="6"/>
+      <c r="B226" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="C226" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D226" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="E226" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="6"/>
-      <c r="B227" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="B227" s="9"/>
       <c r="C227" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="E227" s="9" t="s">
         <v>519</v>
       </c>
+      <c r="E227" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="6"/>
-      <c r="B228" s="9"/>
+      <c r="A228" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>522</v>
+      </c>
       <c r="C228" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="4" t="s">
-        <v>523</v>
+      <c r="A229" s="9" t="s">
+        <v>525</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>525</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>527</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>527</v>
+        <v>232</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>527</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="6"/>
+      <c r="B231" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="C231" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="D231" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="E231" s="9" t="s">
-        <v>231</v>
+        <v>529</v>
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="6"/>
+      <c r="A232" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="B232" s="9" t="s">
         <v>530</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="9" t="s">
         <v>532</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -7360,39 +7367,39 @@
         <v>532</v>
       </c>
       <c r="D233" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="6"/>
+      <c r="B234" s="9" t="s">
         <v>533</v>
-      </c>
-      <c r="E233" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>534</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>534</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="6"/>
+      <c r="A235" s="9" t="s">
+        <v>535</v>
+      </c>
       <c r="B235" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>535</v>
@@ -7420,103 +7427,103 @@
         <v>539</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="9"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B239" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D238" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="E238" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="9" t="s">
+      <c r="E239" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="B240" s="9" t="s">
-        <v>543</v>
-      </c>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="B240" s="9"/>
       <c r="C240" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5">
-      <c r="B241" s="9"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="6"/>
+      <c r="B241" s="9" t="s">
+        <v>547</v>
+      </c>
       <c r="C241" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>547</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="6"/>
-      <c r="B242" s="9" t="s">
-        <v>549</v>
-      </c>
+      <c r="B242" s="9"/>
       <c r="C242" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D242" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="E242" s="9" t="s">
+      <c r="D242" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="9" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="6"/>
-      <c r="B243" s="9"/>
+      <c r="B243" s="9" t="s">
+        <v>552</v>
+      </c>
       <c r="C243" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D243" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>7</v>
+      <c r="E243" s="9" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7524,98 +7531,98 @@
         <v>553</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>553</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="E245" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>556</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>556</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>558</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D247" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="E247" s="9" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="9" t="s">
-        <v>560</v>
+      <c r="A248" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D248" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="E248" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="E248" s="9" t="s">
-        <v>562</v>
-      </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="9" t="s">
         <v>563</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>563</v>
@@ -7623,47 +7630,47 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>567</v>
@@ -7691,87 +7698,90 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="B255" s="9"/>
+      <c r="C255" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B254" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D254" s="9" t="s">
+      <c r="D255" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F255" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E254" s="9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E255" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="256" spans="2:6">
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D256" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E256" s="9" t="s">
-        <v>296</v>
+      <c r="D256" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F256" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="9" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
+      <c r="B257" s="9" t="s">
+        <v>574</v>
+      </c>
       <c r="C257" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D257" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="E257" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B258" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="E258" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D258" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="E258" s="9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="F258" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="9" t="s">
         <v>578</v>
       </c>
@@ -7786,9 +7796,6 @@
       </c>
       <c r="E259" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7799,7 +7806,7 @@
         <v>581</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>581</v>
@@ -7819,122 +7826,118 @@
         <v>582</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" s="9"/>
+      <c r="C262" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="E262" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D262" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="E262" s="9" t="s">
+      <c r="F262" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="6"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="263" spans="2:6">
-      <c r="B263" s="9"/>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="6"/>
-      <c r="B264" s="7"/>
+      <c r="B264" s="9" t="s">
+        <v>588</v>
+      </c>
       <c r="C264" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D264" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" s="9"/>
+      <c r="C266" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D265" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="E265" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D266" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E266" s="9" t="s">
+    <row r="267" spans="1:5">
+      <c r="A267" s="6"/>
+      <c r="B267" s="9" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="267" spans="2:5">
-      <c r="B267" s="9"/>
       <c r="C267" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="6"/>
-      <c r="B268" s="9" t="s">
+      <c r="D267" s="9" t="s">
         <v>598</v>
       </c>
+      <c r="E267" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" s="9"/>
       <c r="C268" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D268" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="E268" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5">
+        <v>82</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="1" t="s">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>84</v>
@@ -7943,67 +7946,67 @@
         <v>84</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="9"/>
+    <row r="270" spans="2:5">
       <c r="B270" s="9"/>
       <c r="C270" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5">
-      <c r="B271" s="9"/>
+      <c r="B271" s="9" t="s">
+        <v>603</v>
+      </c>
       <c r="C271" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D271" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>605</v>
-      </c>
+      <c r="E271" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" s="9"/>
       <c r="C272" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D272" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E272" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5">
-      <c r="B273" s="9"/>
+      <c r="E272" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>607</v>
+      </c>
       <c r="C273" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D273" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>607</v>
+      <c r="E273" s="9" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>609</v>
-      </c>
+      <c r="A274" s="9"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="1" t="s">
         <v>608</v>
       </c>
@@ -8011,134 +8014,138 @@
         <v>609</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="9"/>
-      <c r="B275" s="9"/>
+      <c r="A275" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>612</v>
+      </c>
       <c r="C275" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="4" t="s">
-        <v>613</v>
+      <c r="A276" s="9" t="s">
+        <v>615</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="9" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>623</v>
+        <v>7</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>624</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="4" t="s">
         <v>625</v>
       </c>
       <c r="B279" s="9" t="s">
         <v>626</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>7</v>
+        <v>628</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>7</v>
+        <v>629</v>
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="4" t="s">
-        <v>627</v>
+      <c r="A280" s="9" t="s">
+        <v>630</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D280" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="E280" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="E280" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>633</v>
-      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" s="9"/>
       <c r="C281" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D281" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="E281" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5">
-      <c r="B282" s="9"/>
+      <c r="B282" s="9" t="s">
+        <v>634</v>
+      </c>
       <c r="C282" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D282" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="9" t="s">
         <v>633</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8159,33 +8166,33 @@
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>638</v>
-      </c>
+      <c r="A284" s="9"/>
+      <c r="B284" s="9"/>
       <c r="C284" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D284" s="9" t="s">
+      <c r="D284" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E284" s="9" t="s">
-        <v>637</v>
+      <c r="E284" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="9"/>
-      <c r="B285" s="9"/>
+      <c r="A285" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="C285" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="D285" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>640</v>
+      <c r="E285" s="9" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8199,62 +8206,62 @@
         <v>641</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="9" t="s">
-        <v>643</v>
+      <c r="A287" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="B287" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>645</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="B288" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="C288" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="D288" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="4" t="s">
+        <v>650</v>
+      </c>
       <c r="B289" s="9" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D289" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="E289" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E289" s="9" t="s">
-        <v>651</v>
-      </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="9" t="s">
         <v>652</v>
       </c>
       <c r="B290" s="9" t="s">
@@ -8271,62 +8278,62 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>655</v>
-      </c>
+      <c r="A291" s="9"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D291" s="9" t="s">
+      <c r="D291" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E291" s="9" t="s">
-        <v>654</v>
+      <c r="E291" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="9"/>
-      <c r="B292" s="9"/>
+      <c r="A292" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="C292" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="9" t="s">
-        <v>659</v>
-      </c>
+      <c r="A293" s="6"/>
       <c r="B293" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D293" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="D293" s="9" t="s">
-        <v>662</v>
-      </c>
       <c r="E293" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="6"/>
+      <c r="A294" s="9" t="s">
+        <v>663</v>
+      </c>
       <c r="B294" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="D294" s="9" t="s">
-        <v>663</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>663</v>
@@ -8334,153 +8341,153 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="6"/>
+      <c r="B296" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="C296" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D295" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="E295" s="9" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D296" s="9" t="s">
-        <v>39</v>
+        <v>667</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>40</v>
+        <v>667</v>
       </c>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="6"/>
+      <c r="A297" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="B297" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>668</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>671</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="9" t="s">
-        <v>676</v>
+        <v>213</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>676</v>
+        <v>212</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>676</v>
+        <v>213</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>676</v>
+        <v>212</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>676</v>
+        <v>213</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="9" t="s">
-        <v>213</v>
+        <v>675</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>212</v>
+        <v>676</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>213</v>
+        <v>675</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>212</v>
+        <v>676</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>213</v>
+        <v>675</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8488,128 +8495,124 @@
         <v>677</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>677</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E304" s="9" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="9" t="s">
+      <c r="A305" s="6"/>
+      <c r="B305" s="9"/>
+      <c r="C305" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B306" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D305" s="9" t="s">
+      <c r="D306" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="E305" s="9" t="s">
+      <c r="E306" s="9" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="6"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="1" t="s">
+    <row r="307" s="3" customFormat="1" spans="1:6">
+      <c r="A307" s="9" t="s">
         <v>680</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="9" t="s">
-        <v>681</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>681</v>
+      <c r="C307" s="9" t="s">
+        <v>680</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="308" s="3" customFormat="1" spans="1:6">
+        <v>683</v>
+      </c>
+      <c r="F307" s="9"/>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="9" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="C308" s="9" t="s">
-        <v>682</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="C308" s="9"/>
       <c r="D308" s="9" t="s">
         <v>684</v>
       </c>
       <c r="E308" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309" s="9" t="s">
         <v>685</v>
-      </c>
-      <c r="F308" s="9"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>686</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9" t="s">
-        <v>686</v>
+        <v>7</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>686</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="2:5">
       <c r="B310" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9" t="s">
-        <v>7</v>
+        <v>609</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="9" t="s">
+        <v>687</v>
+      </c>
       <c r="B311" s="9" t="s">
         <v>688</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9" t="s">
-        <v>611</v>
+        <v>7</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>612</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="9" t="s">
+      <c r="A312" s="6"/>
+      <c r="B312" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="B312" s="9" t="s">
-        <v>690</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9" t="s">
@@ -8620,39 +8623,39 @@
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="6"/>
+      <c r="A313" s="9" t="s">
+        <v>690</v>
+      </c>
       <c r="B313" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9" t="s">
-        <v>7</v>
+        <v>690</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>7</v>
+        <v>690</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="6"/>
+      <c r="B315" s="9" t="s">
         <v>692</v>
-      </c>
-      <c r="E314" s="9" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>693</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="9" t="s">
@@ -8662,10 +8665,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="6"/>
-      <c r="B316" s="9" t="s">
-        <v>694</v>
+    <row r="316" spans="2:5">
+      <c r="B316" s="4" t="s">
+        <v>693</v>
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="9" t="s">
@@ -8675,8 +8677,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="2:5">
-      <c r="B317" s="4" t="s">
+    <row r="317" spans="1:5">
+      <c r="A317" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B317" s="9" t="s">
         <v>695</v>
       </c>
       <c r="C317" s="9"/>
@@ -8688,18 +8693,20 @@
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="4" t="s">
+      <c r="A318" s="9" t="s">
         <v>696</v>
       </c>
       <c r="B318" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C318" s="9"/>
       <c r="D318" s="9" t="s">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>7</v>
+        <v>696</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8707,47 +8714,45 @@
         <v>698</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="C319" s="1" t="s">
         <v>699</v>
       </c>
+      <c r="C319" s="9"/>
       <c r="D319" s="9" t="s">
-        <v>282</v>
+        <v>699</v>
       </c>
       <c r="E319" s="9" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="9" t="s">
+    <row r="320" spans="2:5">
+      <c r="B320" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="B320" s="9" t="s">
-        <v>701</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="E320" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="E320" s="9" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="321" spans="2:5">
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
         <v>702</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9" t="s">
-        <v>702</v>
+        <v>7</v>
       </c>
       <c r="E321" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="9" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
         <v>704</v>
       </c>
@@ -8768,38 +8773,38 @@
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9" t="s">
-        <v>7</v>
+        <v>706</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>7</v>
+        <v>705</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="9" t="s">
+      <c r="A324" s="6"/>
+      <c r="B324" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="E324" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="E324" s="9" t="s">
-        <v>707</v>
-      </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="6"/>
+      <c r="A325" s="9" t="s">
+        <v>709</v>
+      </c>
       <c r="B325" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9" t="s">
-        <v>709</v>
+        <v>7</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>710</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8811,10 +8816,10 @@
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9" t="s">
-        <v>7</v>
+        <v>712</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>7</v>
+        <v>711</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8822,50 +8827,48 @@
         <v>713</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9" t="s">
-        <v>714</v>
+        <v>7</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>713</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="9" t="s">
-        <v>715</v>
+        <v>126</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>715</v>
+        <v>126</v>
       </c>
       <c r="C328" s="9"/>
       <c r="D328" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E328" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="6"/>
+      <c r="B329" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E328" s="9" t="s">
+      <c r="E329" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C329" s="9"/>
-      <c r="D329" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E329" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="6"/>
       <c r="B330" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
@@ -8875,42 +8878,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="6"/>
-      <c r="B331" s="1" t="s">
+    <row r="331" spans="2:5">
+      <c r="B331" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E331" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="6"/>
+      <c r="B332" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="2:5">
-      <c r="B332" s="9" t="s">
-        <v>718</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="6"/>
+      <c r="A333" s="9" t="s">
+        <v>718</v>
+      </c>
       <c r="B333" s="9" t="s">
         <v>719</v>
       </c>
       <c r="C333" s="9"/>
       <c r="D333" s="9" t="s">
-        <v>268</v>
+        <v>719</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>269</v>
+        <v>718</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8933,29 +8938,27 @@
         <v>722</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C335" s="9"/>
       <c r="D335" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="6"/>
+      <c r="B336" s="9" t="s">
         <v>723</v>
-      </c>
-      <c r="E335" s="9" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="B336" s="9" t="s">
-        <v>724</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="9" t="s">
-        <v>314</v>
+        <v>723</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>314</v>
+        <v>724</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8963,103 +8966,105 @@
       <c r="B337" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C337" s="9"/>
+      <c r="C337" s="1" t="s">
+        <v>726</v>
+      </c>
       <c r="D337" s="9" t="s">
-        <v>725</v>
+        <v>151</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="6"/>
-      <c r="B338" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="B338" s="9"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D338" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="E338" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B339" s="9"/>
-      <c r="C339" s="1"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="D339" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="9" t="s">
-        <v>732</v>
-      </c>
+      <c r="A340" s="6"/>
       <c r="B340" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C340" s="9"/>
+      <c r="D340" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E340" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="B341" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D340" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="E340" s="9" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="6"/>
-      <c r="B341" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C341" s="9"/>
+      <c r="C341" s="1" t="s">
+        <v>735</v>
+      </c>
       <c r="D341" s="9" t="s">
-        <v>132</v>
+        <v>734</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>132</v>
+        <v>733</v>
       </c>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="9" t="s">
-        <v>735</v>
-      </c>
+      <c r="A342" s="6"/>
       <c r="B342" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C342" s="9"/>
+      <c r="D342" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="D342" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="E342" s="9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="6"/>
       <c r="B343" s="9" t="s">
         <v>738</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9" t="s">
-        <v>7</v>
+        <v>738</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>7</v>
+        <v>737</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9079,62 +9084,62 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="9" t="s">
-        <v>741</v>
+        <v>488</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>742</v>
+        <v>487</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9" t="s">
-        <v>742</v>
+        <v>487</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>741</v>
+        <v>488</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="9" t="s">
-        <v>490</v>
+        <v>741</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>489</v>
+        <v>741</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9" t="s">
-        <v>489</v>
+        <v>741</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>490</v>
+        <v>741</v>
       </c>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="9" t="s">
-        <v>743</v>
+      <c r="A347" s="4" t="s">
+        <v>742</v>
       </c>
       <c r="B347" s="9" t="s">
         <v>743</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="4" t="s">
-        <v>744</v>
+      <c r="A348" s="9" t="s">
+        <v>746</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9" t="s">
-        <v>746</v>
+        <v>7</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>747</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9146,10 +9151,10 @@
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9" t="s">
-        <v>7</v>
+        <v>394</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>7</v>
+        <v>394</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9161,28 +9166,28 @@
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="B351" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>753</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9" t="s">
-        <v>7</v>
+        <v>753</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="352" spans="2:5">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="9" t="s">
+        <v>754</v>
+      </c>
       <c r="B352" s="9" t="s">
         <v>754</v>
       </c>
@@ -9191,22 +9196,22 @@
         <v>755</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9" t="s">
-        <v>757</v>
+        <v>7</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>758</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9218,10 +9223,10 @@
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9" t="s">
-        <v>7</v>
+        <v>760</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>7</v>
+        <v>759</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9240,33 +9245,33 @@
       </c>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B356" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="B356" s="9" t="s">
-        <v>764</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E356" s="9" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="4" t="s">
-        <v>478</v>
+      <c r="A357" s="9" t="s">
+        <v>764</v>
       </c>
       <c r="B357" s="9" t="s">
         <v>765</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9" t="s">
-        <v>765</v>
+        <v>609</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>765</v>
+        <v>609</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9278,74 +9283,71 @@
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9" t="s">
-        <v>611</v>
+        <v>176</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>611</v>
+        <v>177</v>
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="6"/>
+      <c r="B359" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="B359" s="9" t="s">
-        <v>769</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="6"/>
+      <c r="A360" s="9" t="s">
+        <v>769</v>
+      </c>
       <c r="B360" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="9" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="9" t="s">
-        <v>771</v>
+      <c r="A361" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="9" t="s">
-        <v>7</v>
+        <v>770</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>7</v>
+        <v>770</v>
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="4" t="s">
-        <v>772</v>
-      </c>
+      <c r="A362" s="6"/>
       <c r="B362" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C362" s="9"/>
       <c r="D362" s="9" t="s">
         <v>772</v>
       </c>
       <c r="E362" s="9" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="6"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5">
       <c r="B363" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C363" s="9"/>
       <c r="D363" s="9" t="s">
@@ -9355,28 +9357,31 @@
         <v>775</v>
       </c>
     </row>
-    <row r="364" spans="2:5">
+    <row r="364" spans="1:5">
+      <c r="A364" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B364" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C364" s="9"/>
-      <c r="D364" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="E364" s="9" t="s">
+      <c r="B365" s="9" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C365" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="C365" s="9"/>
       <c r="D365" s="9" t="s">
         <v>7</v>
       </c>
@@ -9385,7 +9390,7 @@
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="4" t="s">
+      <c r="A366" s="9" t="s">
         <v>778</v>
       </c>
       <c r="B366" s="9" t="s">
@@ -9393,13 +9398,13 @@
       </c>
       <c r="C366" s="9"/>
       <c r="D366" s="9" t="s">
-        <v>7</v>
+        <v>779</v>
       </c>
       <c r="E366" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" s="9" t="s">
         <v>780</v>
       </c>
@@ -9413,121 +9418,121 @@
       <c r="E367" s="9" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="F367" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" s="9" t="s">
         <v>782</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C368" s="9"/>
       <c r="D368" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E368" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="F368" s="3" t="s">
-        <v>731</v>
-      </c>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="9" t="s">
-        <v>784</v>
+      <c r="A369" s="4" t="s">
+        <v>783</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>784</v>
+        <v>58</v>
       </c>
       <c r="C369" s="9"/>
       <c r="D369" s="9" t="s">
-        <v>784</v>
+        <v>577</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>784</v>
+        <v>576</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>58</v>
+        <v>783</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9" t="s">
-        <v>579</v>
+        <v>58</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>578</v>
+        <v>58</v>
       </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="4" t="s">
-        <v>785</v>
+      <c r="A371" s="9" t="s">
+        <v>784</v>
       </c>
       <c r="B371" s="9" t="s">
         <v>785</v>
       </c>
       <c r="C371" s="9"/>
       <c r="D371" s="9" t="s">
-        <v>58</v>
+        <v>785</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>58</v>
+        <v>784</v>
       </c>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="9" t="s">
-        <v>786</v>
-      </c>
+      <c r="A372" s="6"/>
       <c r="B372" s="9" t="s">
-        <v>787</v>
+        <v>292</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E372" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B373" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="E372" s="9" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="6"/>
-      <c r="B373" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C373" s="9"/>
+      <c r="C373" s="1" t="s">
+        <v>788</v>
+      </c>
       <c r="D373" s="9" t="s">
-        <v>294</v>
+        <v>459</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>294</v>
+        <v>458</v>
       </c>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="4" t="s">
-        <v>788</v>
+      <c r="A374" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="C374" s="1" t="s">
         <v>790</v>
       </c>
+      <c r="C374" s="9"/>
       <c r="D374" s="9" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>460</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="9" t="s">
-        <v>791</v>
+        <v>595</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>792</v>
+        <v>595</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9" t="s">
@@ -9539,32 +9544,32 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="9" t="s">
-        <v>597</v>
+        <v>791</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>597</v>
+        <v>791</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>793</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9" t="s">
-        <v>793</v>
+        <v>7</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>793</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9582,7 +9587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:6">
       <c r="A379" s="9" t="s">
         <v>796</v>
       </c>
@@ -9591,44 +9596,44 @@
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>7</v>
+        <v>468</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B380" s="9" t="s">
-        <v>799</v>
-      </c>
+      <c r="B380" s="9"/>
       <c r="C380" s="9"/>
       <c r="D380" s="9" t="s">
-        <v>471</v>
+        <v>799</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>470</v>
+        <v>798</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B381" s="9"/>
+      <c r="B381" s="9" t="s">
+        <v>801</v>
+      </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="F381" s="3" t="s">
-        <v>230</v>
+        <v>798</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9640,167 +9645,168 @@
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9" t="s">
-        <v>801</v>
+        <v>7</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="A383" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="6"/>
+      <c r="B383" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="B383" s="9" t="s">
-        <v>805</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="4" t="s">
+        <v>805</v>
+      </c>
       <c r="B384" s="9" t="s">
         <v>806</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9" t="s">
-        <v>138</v>
+        <v>806</v>
       </c>
       <c r="E384" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F384" s="3" t="s">
-        <v>573</v>
+        <v>805</v>
       </c>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="4" t="s">
+      <c r="A385" s="6"/>
+      <c r="B385" s="9" t="s">
         <v>807</v>
-      </c>
-      <c r="B385" s="9" t="s">
-        <v>808</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E385" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="E385" s="9" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="6"/>
       <c r="B386" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="E386" s="9" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C387" s="9"/>
       <c r="D387" s="9" t="s">
-        <v>7</v>
+        <v>589</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B388" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="C388" s="9"/>
       <c r="D388" s="9" t="s">
-        <v>591</v>
+        <v>812</v>
       </c>
       <c r="E388" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="9" t="s">
-        <v>812</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="F388" s="7"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="6"/>
       <c r="B389" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>813</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="C389" s="9"/>
       <c r="D389" s="9" t="s">
-        <v>814</v>
+        <v>320</v>
       </c>
       <c r="E389" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="390" s="3" customFormat="1" spans="1:6">
+      <c r="A390" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="F389" s="7"/>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="6"/>
       <c r="B390" s="9" t="s">
         <v>816</v>
       </c>
       <c r="C390" s="9"/>
       <c r="D390" s="9" t="s">
-        <v>322</v>
+        <v>816</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>322</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F390" s="9"/>
     </row>
     <row r="391" s="3" customFormat="1" spans="1:6">
       <c r="A391" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="B391" s="9" t="s">
-        <v>818</v>
-      </c>
+      <c r="B391" s="9"/>
       <c r="C391" s="9"/>
       <c r="D391" s="9" t="s">
         <v>818</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="F391" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="392" s="3" customFormat="1" spans="1:6">
       <c r="A392" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E392" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="F392" s="6" t="s">
-        <v>822</v>
+      <c r="F392" s="3" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="393" s="3" customFormat="1" spans="1:6">
       <c r="A393" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -9808,86 +9814,85 @@
         <v>824</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>825</v>
+        <v>230</v>
       </c>
     </row>
     <row r="394" s="3" customFormat="1" spans="1:6">
       <c r="A394" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E394" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="F394" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F394" s="7"/>
     </row>
     <row r="395" s="3" customFormat="1" spans="1:6">
       <c r="A395" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E395" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="F395" s="7"/>
+      <c r="F395" s="6" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="396" s="3" customFormat="1" spans="1:6">
       <c r="A396" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
       <c r="D396" s="9" t="s">
-        <v>829</v>
+        <v>640</v>
       </c>
       <c r="E396" s="9" t="s">
-        <v>828</v>
+        <v>640</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="397" s="3" customFormat="1" spans="1:6">
+    <row r="397" spans="1:6">
       <c r="A397" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="B397" s="9"/>
-      <c r="C397" s="9"/>
       <c r="D397" s="9" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="E397" s="9" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B398" s="7"/>
+      <c r="D398" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F398" s="6" t="s">
         <v>833</v>
-      </c>
-      <c r="D398" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="E398" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="F398" s="6" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9896,139 +9901,138 @@
       </c>
       <c r="B399" s="7"/>
       <c r="D399" s="9" t="s">
-        <v>7</v>
+        <v>835</v>
       </c>
       <c r="E399" s="9" t="s">
-        <v>7</v>
+        <v>836</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>835</v>
+        <v>230</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B400" s="7"/>
+      <c r="B400" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C400" s="7"/>
       <c r="D400" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E400" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="9" t="s">
+      <c r="A401" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="B401" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="C401" s="7"/>
-      <c r="D401" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="E401" s="9" t="s">
+      <c r="B402" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="F401" s="6" t="s">
+      <c r="D402" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F403" s="3" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6">
-      <c r="A402" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F402" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7">
-      <c r="A403" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="G403" s="3" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F404" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B404" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="E404" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="F404" s="3" t="s">
+    </row>
+    <row r="405" spans="3:6">
+      <c r="C405" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="F406" s="3" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
-      <c r="A405" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B405" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="D405" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E405" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F405" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="406" spans="3:6">
-      <c r="C406" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="F406" s="3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>851</v>
@@ -10045,7 +10049,7 @@
         <v>853</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>230</v>
@@ -10053,16 +10057,16 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>855</v>
       </c>
       <c r="E409" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F409" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -10070,13 +10074,13 @@
         <v>857</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E410" s="4" t="s">
         <v>857</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>858</v>
+        <v>230</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -10090,21 +10094,50 @@
         <v>859</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" s="4" t="s">
+      <c r="A412" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="D412" s="4" t="s">
+      <c r="C412" s="9"/>
+      <c r="D412" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="E412" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="E412" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="F412" s="3" t="s">
-        <v>335</v>
+      <c r="D413" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -10135,10 +10168,10 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -10160,12 +10193,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
